--- a/CAJA MENOR/CAJA INQUIORT/2024/ABRIL.xlsx
+++ b/CAJA MENOR/CAJA INQUIORT/2024/ABRIL.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\CAJA MENOR\CAJA INQUIORT\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CAJA MENOR\CAJA INQUIORT\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795BA9A7-6C0F-46E7-ACE6-F63F2C77780A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{899B442C-9C80-4548-891C-C258FA741F31}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CAJA MENOR INQUIORT</t>
   </si>
@@ -69,16 +68,31 @@
   </si>
   <si>
     <t>ESTERILIZACION INTERHOSPITAL-DR. UQUILLAS-CLAVO PFNA ACERO-IRENE 3.5 - PLACAS DCP</t>
+  </si>
+  <si>
+    <t>469.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTERILIZACION INTERHOSPITAL-DR. ZAPATA-TORNILLOS CANULADOS 4.0 </t>
+  </si>
+  <si>
+    <t>44.69</t>
+  </si>
+  <si>
+    <t>178.78</t>
+  </si>
+  <si>
+    <t>CARLOS MEDEJA PENDIENTE $73</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,7 +253,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -248,6 +261,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,43 +597,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684074F8-98C5-4711-B5F4-C48B2EC82359}">
-  <dimension ref="A2:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="96.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="96.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="18">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>500</v>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="20">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -632,11 +648,11 @@
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="20">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>45385</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -648,11 +664,11 @@
       <c r="F6" s="15"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5">
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>45388</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -663,11 +679,11 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5">
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>45390</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -677,63 +693,70 @@
         <v>67.040000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.5">
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="24">
+        <v>45395</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="13"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="13"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.5">
       <c r="A13" s="16"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="20">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="22">
-        <f>SUM(D6:D13)</f>
-        <v>245.81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="23">
-        <f>+D4-D14</f>
-        <v>254.19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="24"/>
+      <c r="D14" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5">
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/CAJA MENOR/CAJA INQUIORT/2024/ABRIL.xlsx
+++ b/CAJA MENOR/CAJA INQUIORT/2024/ABRIL.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CAJA MENOR INQUIORT</t>
   </si>
@@ -76,13 +76,22 @@
     <t xml:space="preserve">ESTERILIZACION INTERHOSPITAL-DR. ZAPATA-TORNILLOS CANULADOS 4.0 </t>
   </si>
   <si>
-    <t>44.69</t>
-  </si>
-  <si>
-    <t>178.78</t>
-  </si>
-  <si>
-    <t>CARLOS MEDEJA PENDIENTE $73</t>
+    <t xml:space="preserve">ESTERILIZACION INTERHOSPITAL-DR. ECHANIQUE- RADIO DISTAL ARIX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTERILIZACION INTERHOSPITAL-DR. ZAPATA-CLAVOS TEENS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXI MICHAEL </t>
+  </si>
+  <si>
+    <t>83.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.59 </t>
+  </si>
+  <si>
+    <t>CARLOS MEDEJA PENDIENTE $28,31</t>
   </si>
 </sst>
 </file>
@@ -242,10 +251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -253,9 +258,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -652,13 +663,13 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>45385</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="25">
         <v>67.040000000000006</v>
       </c>
       <c r="F6" s="15"/>
@@ -668,13 +679,13 @@
       <c r="A7" s="16">
         <v>2</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>45388</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="24">
         <v>111.73</v>
       </c>
       <c r="F7" s="8"/>
@@ -683,13 +694,13 @@
       <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>45390</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="24">
         <v>67.040000000000006</v>
       </c>
     </row>
@@ -697,69 +708,98 @@
       <c r="A9" s="16">
         <v>4</v>
       </c>
-      <c r="B9" s="24">
-        <v>45395</v>
+      <c r="B9" s="21">
+        <v>45391</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="24">
+        <v>44.69</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5">
       <c r="A10" s="16">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="21">
+        <v>45395</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="25">
+        <v>44.69</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.5">
       <c r="A11" s="16">
         <v>6</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="21">
+        <v>45398</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="25">
+        <v>44.69</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.5">
       <c r="A12" s="16">
         <v>7</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="21">
+        <v>45392</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="15.5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="16">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="20">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21" t="s">
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" ht="20">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.5">
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>15</v>
+      <c r="D15" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.5">
+      <c r="D16" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>